--- a/BishoujoAcademy/Resource/src/excle/Item.xlsx
+++ b/BishoujoAcademy/Resource/src/excle/Item.xlsx
@@ -46,9 +46,6 @@
     <t>出售价格</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
@@ -83,6 +80,9 @@
   </si>
   <si>
     <t>json</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -139,11 +139,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -451,7 +454,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -495,67 +498,67 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">

--- a/BishoujoAcademy/Resource/src/excle/Item.xlsx
+++ b/BishoujoAcademy/Resource/src/excle/Item.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
   <si>
     <t>编号</t>
   </si>
@@ -34,18 +34,9 @@
     <t>展示图</t>
   </si>
   <si>
-    <t>道具类型</t>
-  </si>
-  <si>
     <t>堆叠上限</t>
   </si>
   <si>
-    <t>使用效果</t>
-  </si>
-  <si>
-    <t>出售价格</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
@@ -61,18 +52,9 @@
     <t>paint</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>stack</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>sell</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -83,6 +65,169 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>稀有度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否唯一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isOnly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>占用空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>space</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon/item/test001.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀释血清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用电瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T病毒血清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钞票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验室钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T病毒培养基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T病毒母体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T病毒强化剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"力量":2,"敏捷":1,"体质":3,"感知":1,"魅力":-3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"重要物品":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"消耗品":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子类型（货币,消耗品,材料,任务道具）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具类型(物品)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -451,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -463,9 +608,14 @@
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="12.125" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="30.625" customWidth="1"/>
+    <col min="7" max="7" width="19.875" customWidth="1"/>
+    <col min="8" max="8" width="40.25" customWidth="1"/>
+    <col min="9" max="9" width="10.25" customWidth="1"/>
+    <col min="13" max="13" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,154 +635,510 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>10000</v>
+        <v>5000001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
+        <v>37</v>
+      </c>
+      <c r="C4">
         <v>10000</v>
       </c>
       <c r="D4">
         <v>10001</v>
       </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
       <c r="J4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>999</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>10001</v>
+        <v>5000002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
+        <v>33</v>
+      </c>
+      <c r="C5">
         <v>10002</v>
       </c>
       <c r="D5">
         <v>10003</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5">
+        <v>99</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5000003</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>10004</v>
+      </c>
+      <c r="D6">
+        <v>10005</v>
+      </c>
+      <c r="G6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <v>99</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>5000004</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>10006</v>
+      </c>
+      <c r="D7">
+        <v>10007</v>
+      </c>
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>50</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>5000005</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8">
+        <v>10008</v>
+      </c>
+      <c r="D8">
+        <v>10009</v>
+      </c>
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>20</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>5000006</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <v>10010</v>
+      </c>
+      <c r="D9">
+        <v>10011</v>
+      </c>
+      <c r="G9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>20</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>5000007</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10">
+        <v>10012</v>
+      </c>
+      <c r="D10">
+        <v>10013</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>50</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>5000008</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
+        <v>10014</v>
+      </c>
+      <c r="D11">
+        <v>10015</v>
+      </c>
+      <c r="G11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>5000009</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12">
+        <v>10016</v>
+      </c>
+      <c r="D12">
+        <v>10017</v>
+      </c>
+      <c r="G12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12">
+        <v>99</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>5000010</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13">
+        <v>10018</v>
+      </c>
+      <c r="D13">
+        <v>10019</v>
+      </c>
+      <c r="G13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>20</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
     </row>
